--- a/examples/Inventory.xlsx
+++ b/examples/Inventory.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +413,12 @@
       <c r="C1" t="str">
         <v>Location</v>
       </c>
+      <c r="D1" t="str">
+        <v/>
+      </c>
+      <c r="E1" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -424,6 +430,12 @@
       <c r="C2" t="str">
         <v>A1</v>
       </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -435,21 +447,305 @@
       <c r="C3" t="str">
         <v>A2</v>
       </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>Keyboards</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C4" t="str">
         <v>A3</v>
       </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>tst</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E20"/>
   </ignoredErrors>
 </worksheet>
 </file>
